--- a/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3655621535585646</v>
+        <v>-0.429965476818998</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.495637307266554</v>
+        <v>-3.677242265209197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.968713286276166</v>
+        <v>-3.862469623306843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0181491829019976</v>
+        <v>0.09873787507927081</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.7015570716080737</v>
+        <v>-0.9440490467162466</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4322838576138745</v>
+        <v>0.4998684304291382</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3619080217634241</v>
+        <v>0.3007029529715491</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.448303250442227</v>
+        <v>-1.363414882249098</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6709402030875609</v>
+        <v>-0.8192614317685878</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.001779268776398</v>
+        <v>5.060577979444569</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.80160200753513</v>
+        <v>1.869405001649704</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.477594090440834</v>
+        <v>1.692533462302702</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.029292764684469</v>
+        <v>4.001325550938346</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.523599522852435</v>
+        <v>3.348912837488974</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.05765950883655</v>
+        <v>4.238491084107516</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.664318739400933</v>
+        <v>3.798086758616545</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.20689055177582</v>
+        <v>1.95523067565327</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.557819755760653</v>
+        <v>2.260047452673849</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04047943696547505</v>
+        <v>-0.04199623184204919</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3402091553246661</v>
+        <v>-0.3461810772329533</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3981271752344288</v>
+        <v>-0.368315300011637</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01292313212927238</v>
+        <v>0.01194157839717403</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.100006718481813</v>
+        <v>-0.1563368679435599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06117386058646287</v>
+        <v>0.07465081595200786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05166419906772687</v>
+        <v>0.03382009932815126</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1796903490496895</v>
+        <v>-0.160702015612957</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08642666887858035</v>
+        <v>-0.1038798306864415</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6269022032671622</v>
+        <v>0.6540854886923899</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2303207299154609</v>
+        <v>0.2473481981723457</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1897524830139508</v>
+        <v>0.2072403274782548</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7986744249679546</v>
+        <v>0.7880773251488667</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7301187428495592</v>
+        <v>0.6666184688802217</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8293297656880887</v>
+        <v>0.8448339391396462</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.572261290604396</v>
+        <v>0.5785272242748211</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3406326491938926</v>
+        <v>0.3135614301379225</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3707192835102591</v>
+        <v>0.3389460181463106</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.937972082996051</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8669700111725832</v>
+        <v>0.8669700111725819</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.84866711241221</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.05783749300075</v>
+        <v>1.079124632142116</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3443744095826339</v>
+        <v>0.3332689704503812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6857413834399966</v>
+        <v>-0.8507154664636868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.131147593338218</v>
+        <v>1.102772382664842</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9984418242048888</v>
+        <v>0.9370848575386707</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.01200468859292773</v>
+        <v>-0.1070451869260284</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.433321901974282</v>
+        <v>1.398669237218649</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.156992661215017</v>
+        <v>1.090387860727601</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09835982211599131</v>
+        <v>0.1121211641806605</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.454947784582989</v>
+        <v>4.417563223307075</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.642964001883286</v>
+        <v>3.792413917756033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.599624790647266</v>
+        <v>2.569855254611181</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.703677489824834</v>
+        <v>4.85184290946275</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.646110569285342</v>
+        <v>4.472410111410731</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.225790355878448</v>
+        <v>3.202161975541591</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.053758721814062</v>
+        <v>3.993651652156486</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.542946799265213</v>
+        <v>3.484729507820236</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.47083245267381</v>
+        <v>2.45446761697772</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3387474907388809</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1515418712206344</v>
+        <v>0.1515418712206341</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.472504061679839</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1648572423343558</v>
+        <v>0.1589512363114491</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.05276515274610473</v>
+        <v>0.04235065902732844</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1092861906207159</v>
+        <v>-0.1290045409634265</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1402075426315527</v>
+        <v>0.1643634369824587</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1410218598310714</v>
+        <v>0.1250466527533953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.004622841322560561</v>
+        <v>-0.0134484412221467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2209683048426075</v>
+        <v>0.2128200934395098</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1815159048385479</v>
+        <v>0.1774288054897641</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.01563792871410272</v>
+        <v>0.01397632533086918</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9420312278550478</v>
+        <v>0.900600156150774</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7539111551644874</v>
+        <v>0.7744742150545117</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5321423705868846</v>
+        <v>0.5200230226000128</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8940980720461144</v>
+        <v>0.9800486366611202</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9090154429136648</v>
+        <v>0.8872345003275236</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6382694101417626</v>
+        <v>0.6296933510055971</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7546336684554925</v>
+        <v>0.7610562823393817</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6929811191767195</v>
+        <v>0.678094732352725</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.480043195258021</v>
+        <v>0.4580684407900807</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.7717376921608441</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.104877664863615</v>
+        <v>2.104877664863612</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.53112391062082</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2382680049106732</v>
+        <v>-0.3198590405709308</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.57473325868992</v>
+        <v>-2.218793870052364</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.409606881890067</v>
+        <v>-1.275147135919268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.140018095242227</v>
+        <v>-5.251992168282241</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.68642474525489</v>
+        <v>-4.473528977544639</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.503188051732725</v>
+        <v>-5.38591861555707</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.647748008073071</v>
+        <v>-1.409781185140225</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.21059808668166</v>
+        <v>-2.50980987108839</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.301608627022133</v>
+        <v>-2.417340415385407</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.188588127723719</v>
+        <v>7.210240251234236</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.959348664676502</v>
+        <v>4.154942387818678</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.405384864053443</v>
+        <v>5.483565950703988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.383376745872658</v>
+        <v>2.29723080519376</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.607149417003952</v>
+        <v>2.590627653441508</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7113202833031845</v>
+        <v>0.8506299786451255</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.705395063042458</v>
+        <v>3.652247729829242</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.21734155026315</v>
+        <v>2.501227309058226</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.433597673486924</v>
+        <v>2.314469723730217</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1201307532255392</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3276508869479702</v>
+        <v>0.3276508869479698</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1636346845826385</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04382751962037753</v>
+        <v>-0.06449221096082056</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3368250264754452</v>
+        <v>-0.2790810301007255</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1879312668899955</v>
+        <v>-0.1637290696764388</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4505380432639428</v>
+        <v>-0.4689514385593102</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4141246965834361</v>
+        <v>-0.4077817668889452</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4693221062557236</v>
+        <v>-0.4581895026297502</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1811893426712329</v>
+        <v>-0.1672393832906618</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2471497024370365</v>
+        <v>-0.2695932399607293</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2581746176492779</v>
+        <v>-0.2473631520516452</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.463417740184647</v>
+        <v>1.470412653563665</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8057663314747726</v>
+        <v>0.8314945098057703</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.052817624847082</v>
+        <v>1.164763078827931</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3151122203363244</v>
+        <v>0.3104823269612842</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3621035543778393</v>
+        <v>0.350669501918101</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.100083737705608</v>
+        <v>0.114252329418593</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5546209252225033</v>
+        <v>0.5388409569123852</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3538773615004134</v>
+        <v>0.3910839650454822</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3855333169673388</v>
+        <v>0.345918417942275</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.8096520788464443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2855060927754921</v>
+        <v>0.2855060927754935</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.905739772669558</v>
@@ -1306,7 +1306,7 @@
         <v>1.349147465267493</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.7952089362002174</v>
+        <v>0.7952089362002159</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.121647811265482</v>
+        <v>1.120353426078935</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4538850720906732</v>
+        <v>-0.5754134889599535</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9502137462036365</v>
+        <v>-1.029477582684103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5676575797903255</v>
+        <v>0.6241643033569109</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7316755122906977</v>
+        <v>0.6670214814150618</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1536537840880386</v>
+        <v>0.1522717977397479</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.270701332429521</v>
+        <v>1.262215929126537</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5090979716183825</v>
+        <v>0.436292491334864</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.01693668990792263</v>
+        <v>-0.09875033872725379</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.042141273527885</v>
+        <v>3.946617288701663</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.06187116405255</v>
+        <v>2.082361593922157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.572932222504515</v>
+        <v>1.767190528039385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.296898336318165</v>
+        <v>3.167924102380502</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.159774064760162</v>
+        <v>3.149544058823695</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.424322791630542</v>
+        <v>2.477251590002511</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.141980269053848</v>
+        <v>3.141758647404781</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.328403792436002</v>
+        <v>2.287831120344566</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.729820411782912</v>
+        <v>1.72829881922055</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1169742824281973</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.04124842164164375</v>
+        <v>0.04124842164164395</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2966531499165</v>
@@ -1411,7 +1411,7 @@
         <v>0.2023011773630975</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1192395258372031</v>
+        <v>0.1192395258372028</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1441746816343699</v>
+        <v>0.1524854803277995</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05970881374460842</v>
+        <v>-0.07723761196733045</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1253073264352559</v>
+        <v>-0.1371463925599033</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.07874701422412776</v>
+        <v>0.08563080850773042</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1020554985731074</v>
+        <v>0.09227185077994907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02114862439906798</v>
+        <v>0.02116084343823451</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1762038722763153</v>
+        <v>0.1769623008194969</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07021355377604743</v>
+        <v>0.0629044880713952</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.00529696871173341</v>
+        <v>-0.01501718232681958</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6275920576009448</v>
+        <v>0.6507834763479288</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3264363773551643</v>
+        <v>0.3321397978728775</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2519845715057203</v>
+        <v>0.2871799619923277</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.575107976405364</v>
+        <v>0.5433906097971982</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5577507530353095</v>
+        <v>0.5436385115563226</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4208070284916239</v>
+        <v>0.4354456691552161</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5056400754788953</v>
+        <v>0.5096362147546954</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3751602720791546</v>
+        <v>0.3615533703281065</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2745109967848189</v>
+        <v>0.2824793369249758</v>
       </c>
     </row>
     <row r="28">
